--- a/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
+++ b/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目\ydosp中北5组项目启动\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目\YDOSP\HD-CMMI3_libs\01Development Library\02ProcessManage\01OPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F51CF4-141A-4320-868B-128A061D6313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5EE73-7771-44E3-A2F9-0329FABD4F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="936" yWindow="360" windowWidth="22080" windowHeight="12240" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -602,19 +602,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YDOSP-PMC-601-0622-0628</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-801-0622-0628</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-101/201/301/401/501-0622-0628</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PPQA-301-0622-0628</t>
+    <t>YDOSP-PPQA-301-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-101/201/301/401/501-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-801-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-601-0615-0621</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1023,84 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,24 +1110,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,66 +1118,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,8 +1435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07548433-8EDB-4B65-8588-C50BD0A94E21}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1449,14 +1449,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1517,16 +1517,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1537,10 +1537,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1549,14 +1549,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1567,22 +1567,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="16" t="s">
         <v>97</v>
       </c>
@@ -1591,22 +1591,22 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="16" t="s">
         <v>98</v>
       </c>
@@ -1615,22 +1615,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="16" t="s">
         <v>99</v>
       </c>
@@ -1639,14 +1639,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -1657,10 +1657,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="16" t="s">
         <v>101</v>
       </c>
@@ -1669,10 +1669,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="16" t="s">
         <v>102</v>
       </c>
@@ -1681,10 +1681,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="18" t="s">
         <v>103</v>
       </c>
@@ -1693,16 +1693,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1714,9 +1714,9 @@
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="2" t="s">
         <v>105</v>
       </c>
@@ -1726,9 +1726,9 @@
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="2" t="s">
         <v>106</v>
       </c>
@@ -1738,9 +1738,9 @@
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="2" t="s">
         <v>107</v>
       </c>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="20" t="s">
@@ -1768,9 +1768,9 @@
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="20" t="s">
         <v>109</v>
       </c>
@@ -1780,9 +1780,9 @@
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="20" t="s">
         <v>110</v>
       </c>
@@ -1792,9 +1792,9 @@
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="20" t="s">
         <v>111</v>
       </c>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="20" t="s">
@@ -1822,9 +1822,9 @@
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="20" t="s">
         <v>113</v>
       </c>
@@ -1834,9 +1834,9 @@
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="20" t="s">
         <v>114</v>
       </c>
@@ -1846,9 +1846,9 @@
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="20" t="s">
         <v>115</v>
       </c>
@@ -1858,9 +1858,9 @@
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="20" t="s">
         <v>116</v>
       </c>
@@ -1870,9 +1870,9 @@
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="20" t="s">
         <v>117</v>
       </c>
@@ -1882,9 +1882,9 @@
     </row>
     <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="20" t="s">
         <v>118</v>
       </c>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="47" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1930,9 +1930,9 @@
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2" t="s">
         <v>121</v>
       </c>
@@ -1942,9 +1942,9 @@
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="2" t="s">
         <v>122</v>
       </c>
@@ -1954,9 +1954,9 @@
     </row>
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="2" t="s">
         <v>123</v>
       </c>
@@ -1966,9 +1966,9 @@
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="2" t="s">
         <v>124</v>
       </c>
@@ -1978,9 +1978,9 @@
     </row>
     <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="2" t="s">
         <v>125</v>
       </c>
@@ -1990,9 +1990,9 @@
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="2" t="s">
         <v>126</v>
       </c>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="20" t="s">
@@ -2020,9 +2020,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="20" t="s">
         <v>128</v>
       </c>
@@ -2031,10 +2031,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="23" t="s">
         <v>129</v>
       </c>
@@ -2043,16 +2043,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="14" t="s">
@@ -2063,10 +2063,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="16" t="s">
         <v>131</v>
       </c>
@@ -2075,10 +2075,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="16" t="s">
         <v>132</v>
       </c>
@@ -2087,10 +2087,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="16" t="s">
         <v>133</v>
       </c>
@@ -2099,10 +2099,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="16" t="s">
         <v>134</v>
       </c>
@@ -2111,10 +2111,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="16" t="s">
         <v>135</v>
       </c>
@@ -2123,10 +2123,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="16" t="s">
         <v>136</v>
       </c>
@@ -2135,10 +2135,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="16" t="s">
         <v>137</v>
       </c>
@@ -2147,14 +2147,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
@@ -2165,10 +2165,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="16" t="s">
         <v>139</v>
       </c>
@@ -2177,10 +2177,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="16" t="s">
         <v>140</v>
       </c>
@@ -2189,42 +2189,52 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="53"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
     </row>
     <row r="57" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="56"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="A56:F57"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="B41:B43"/>
@@ -2241,21 +2251,11 @@
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="A56:F57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
+++ b/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目\YDOSP\HD-CMMI3_libs\01Development Library\02ProcessManage\01OPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA5EE73-7771-44E3-A2F9-0329FABD4F7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0ED9F-D64D-4287-80BB-9FEA309BE6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
   </bookViews>
@@ -421,18 +421,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YDOSP-PMC-701</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-X01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>YDOSP-IPM-001</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -606,15 +594,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YDOSP-PMC-101/201/301/401/501-0615-0621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-801-0615-0621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-601-0615-0621</t>
+    <t>YDOSP-PMC-101-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-201-1/2/3/4/5-0622-0628</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-301-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-501-1/2/3/4/5-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-601</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1023,18 +1023,75 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1061,63 +1118,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1449,14 +1449,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1517,16 +1517,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1537,10 +1537,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1549,14 +1549,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1567,146 +1567,146 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="16" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="16" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="35"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
       <c r="E12" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
       <c r="E13" s="16" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
       <c r="E15" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F17" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="46" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>40</v>
@@ -1714,11 +1714,11 @@
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
       <c r="E19" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>41</v>
@@ -1726,11 +1726,11 @@
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>42</v>
@@ -1738,11 +1738,11 @@
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>43</v>
@@ -1750,17 +1750,17 @@
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F22" s="21" t="s">
         <v>46</v>
@@ -1768,11 +1768,11 @@
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F23" s="21" t="s">
         <v>47</v>
@@ -1780,11 +1780,11 @@
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F24" s="21" t="s">
         <v>48</v>
@@ -1792,11 +1792,11 @@
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>49</v>
@@ -1804,17 +1804,17 @@
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>52</v>
@@ -1822,11 +1822,11 @@
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="20" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>53</v>
@@ -1834,11 +1834,11 @@
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F28" s="21" t="s">
         <v>54</v>
@@ -1846,11 +1846,11 @@
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F29" s="21" t="s">
         <v>55</v>
@@ -1858,11 +1858,11 @@
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F30" s="21" t="s">
         <v>56</v>
@@ -1870,11 +1870,11 @@
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F31" s="21" t="s">
         <v>57</v>
@@ -1882,11 +1882,11 @@
     </row>
     <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F32" s="21" t="s">
         <v>58</v>
@@ -1904,7 +1904,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F33" s="21" t="s">
         <v>61</v>
@@ -1912,17 +1912,17 @@
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
-      <c r="B34" s="48" t="s">
+      <c r="B34" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>64</v>
@@ -1930,11 +1930,11 @@
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>65</v>
@@ -1942,11 +1942,11 @@
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>66</v>
@@ -1954,11 +1954,11 @@
     </row>
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
       <c r="E37" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>67</v>
@@ -1966,11 +1966,11 @@
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>68</v>
@@ -1978,11 +1978,11 @@
     </row>
     <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>69</v>
@@ -1990,11 +1990,11 @@
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
       <c r="E40" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>70</v>
@@ -2002,17 +2002,17 @@
     </row>
     <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>73</v>
@@ -2020,221 +2020,211 @@
     </row>
     <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
       <c r="E43" s="23" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F44" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
       <c r="E45" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F45" s="17" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
       <c r="E46" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F46" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
       <c r="E47" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F47" s="17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="49"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
       <c r="E48" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
       <c r="E49" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F49" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="E50" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F50" s="17" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="49"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
       <c r="E51" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F51" s="17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="49"/>
+      <c r="B52" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F52" s="17" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="33"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F53" s="17" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
+      <c r="A54" s="49"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F54" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
       <c r="E55" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F55" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
+      <c r="A56" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="52"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="53"/>
     </row>
     <row r="57" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A17"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="A56:F57"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="B41:B43"/>
@@ -2251,11 +2241,21 @@
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="A56:F57"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
+++ b/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目\YDOSP\HD-CMMI3_libs\01Development Library\02ProcessManage\01OPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B0ED9F-D64D-4287-80BB-9FEA309BE6C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7681CBFD-DC4B-4065-96D7-E3948ED97533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
   </bookViews>
@@ -598,10 +598,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>YDOSP-PMC-201-1/2/3/4/5-0622-0628</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>YDOSP-PMC-301-0615-0621</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -615,6 +611,10 @@
   </si>
   <si>
     <t>YDOSP-PMC-601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-201-1/2/3/4/5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1023,84 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,24 +1110,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,66 +1118,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1449,14 +1449,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
     </row>
     <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1479,7 +1479,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1499,7 +1499,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1517,16 +1517,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1537,10 +1537,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1549,14 +1549,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="33" t="s">
+      <c r="A7" s="55"/>
+      <c r="B7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1567,10 +1567,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="16" t="s">
         <v>140</v>
       </c>
@@ -1578,75 +1578,75 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
       <c r="E10" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="35"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="35"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="35"/>
-      <c r="B14" s="33" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -1657,10 +1657,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
       <c r="E15" s="16" t="s">
         <v>98</v>
       </c>
@@ -1669,10 +1669,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
       <c r="E16" s="16" t="s">
         <v>99</v>
       </c>
@@ -1681,10 +1681,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="18" t="s">
         <v>100</v>
       </c>
@@ -1693,16 +1693,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="46" t="s">
+      <c r="D18" s="49" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1714,9 +1714,9 @@
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="2" t="s">
         <v>102</v>
       </c>
@@ -1726,9 +1726,9 @@
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="2" t="s">
         <v>103</v>
       </c>
@@ -1738,9 +1738,9 @@
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="2" t="s">
         <v>104</v>
       </c>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="20" t="s">
@@ -1768,9 +1768,9 @@
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="20" t="s">
         <v>106</v>
       </c>
@@ -1780,9 +1780,9 @@
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
       <c r="E24" s="20" t="s">
         <v>107</v>
       </c>
@@ -1792,9 +1792,9 @@
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
       <c r="E25" s="20" t="s">
         <v>108</v>
       </c>
@@ -1804,13 +1804,13 @@
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="37" t="s">
+      <c r="D26" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="20" t="s">
@@ -1822,9 +1822,9 @@
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="20" t="s">
         <v>110</v>
       </c>
@@ -1834,9 +1834,9 @@
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="20" t="s">
         <v>111</v>
       </c>
@@ -1846,9 +1846,9 @@
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
       <c r="E29" s="20" t="s">
         <v>112</v>
       </c>
@@ -1858,9 +1858,9 @@
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
       <c r="E30" s="20" t="s">
         <v>113</v>
       </c>
@@ -1870,9 +1870,9 @@
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
       <c r="E31" s="20" t="s">
         <v>114</v>
       </c>
@@ -1882,9 +1882,9 @@
     </row>
     <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="20" t="s">
         <v>115</v>
       </c>
@@ -1912,13 +1912,13 @@
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="47" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1930,9 +1930,9 @@
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="E35" s="2" t="s">
         <v>118</v>
       </c>
@@ -1942,9 +1942,9 @@
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="E36" s="2" t="s">
         <v>119</v>
       </c>
@@ -1954,9 +1954,9 @@
     </row>
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
       <c r="E37" s="2" t="s">
         <v>120</v>
       </c>
@@ -1966,9 +1966,9 @@
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="2" t="s">
         <v>121</v>
       </c>
@@ -1978,9 +1978,9 @@
     </row>
     <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
       <c r="E39" s="2" t="s">
         <v>122</v>
       </c>
@@ -1990,9 +1990,9 @@
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
       <c r="E40" s="2" t="s">
         <v>123</v>
       </c>
@@ -2002,13 +2002,13 @@
     </row>
     <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="38" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="20" t="s">
@@ -2020,9 +2020,9 @@
     </row>
     <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="20" t="s">
         <v>125</v>
       </c>
@@ -2031,10 +2031,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
       <c r="E43" s="23" t="s">
         <v>126</v>
       </c>
@@ -2043,16 +2043,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="30" t="s">
+      <c r="D44" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="14" t="s">
@@ -2063,10 +2063,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
+      <c r="A45" s="30"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
       <c r="E45" s="16" t="s">
         <v>128</v>
       </c>
@@ -2075,10 +2075,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
       <c r="E46" s="16" t="s">
         <v>129</v>
       </c>
@@ -2087,10 +2087,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
       <c r="E47" s="16" t="s">
         <v>130</v>
       </c>
@@ -2099,10 +2099,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
       <c r="E48" s="16" t="s">
         <v>131</v>
       </c>
@@ -2111,10 +2111,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
       <c r="E49" s="16" t="s">
         <v>132</v>
       </c>
@@ -2123,10 +2123,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
       <c r="E50" s="16" t="s">
         <v>133</v>
       </c>
@@ -2135,10 +2135,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
       <c r="E51" s="16" t="s">
         <v>134</v>
       </c>
@@ -2147,14 +2147,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="33" t="s">
+      <c r="A52" s="30"/>
+      <c r="B52" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="25" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="16" t="s">
@@ -2165,10 +2165,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
       <c r="E53" s="16" t="s">
         <v>136</v>
       </c>
@@ -2177,10 +2177,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
       <c r="E54" s="16" t="s">
         <v>137</v>
       </c>
@@ -2189,10 +2189,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="50"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
       <c r="E55" s="18" t="s">
         <v>139</v>
       </c>
@@ -2201,30 +2201,40 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
-      <c r="E56" s="52"/>
-      <c r="F56" s="53"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="34"/>
     </row>
     <row r="57" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="56"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="A56:F57"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="B41:B43"/>
@@ -2241,21 +2251,11 @@
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="A56:F57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
+++ b/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目\YDOSP\HD-CMMI3_libs\01Development Library\02ProcessManage\01OPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7681CBFD-DC4B-4065-96D7-E3948ED97533}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DFD5FE-EDA5-4D61-BB53-31F028772995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
+    <workbookView xWindow="960" yWindow="384" windowWidth="22080" windowHeight="12240" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="148">
   <si>
     <t>YDOSP中北5组CMMI3组织级文档列表清单</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,6 +615,14 @@
   </si>
   <si>
     <t>YDOSP-PMC-201-1/2/3/4/5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线发布表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-CM-601</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -697,7 +705,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -941,13 +949,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,15 +1071,75 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,61 +1167,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1433,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07548433-8EDB-4B65-8588-C50BD0A94E21}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1449,14 +1515,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="53"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1479,7 +1545,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1499,7 +1565,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1517,16 +1583,16 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="14" t="s">
@@ -1537,10 +1603,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1549,14 +1615,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="16" t="s">
@@ -1567,10 +1633,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="16" t="s">
         <v>140</v>
       </c>
@@ -1579,10 +1645,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="16" t="s">
         <v>145</v>
       </c>
@@ -1591,10 +1657,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="16" t="s">
         <v>141</v>
       </c>
@@ -1603,10 +1669,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="16" t="s">
         <v>142</v>
       </c>
@@ -1615,10 +1681,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="16" t="s">
         <v>143</v>
       </c>
@@ -1627,10 +1693,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
       <c r="E13" s="16" t="s">
         <v>144</v>
       </c>
@@ -1639,14 +1705,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="16" t="s">
@@ -1657,10 +1723,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="16" t="s">
         <v>98</v>
       </c>
@@ -1669,10 +1735,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
       <c r="E16" s="16" t="s">
         <v>99</v>
       </c>
@@ -1681,10 +1747,10 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="18" t="s">
         <v>100</v>
       </c>
@@ -1693,16 +1759,16 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="47" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1713,10 +1779,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" s="2" t="s">
         <v>102</v>
       </c>
@@ -1725,10 +1791,10 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
       <c r="E20" s="2" t="s">
         <v>103</v>
       </c>
@@ -1737,10 +1803,10 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="2" t="s">
         <v>104</v>
       </c>
@@ -1749,8 +1815,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="39" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="38" t="s">
@@ -1767,8 +1833,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
-      <c r="B23" s="40"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="20" t="s">
@@ -1779,8 +1845,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="40"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="20" t="s">
@@ -1791,8 +1857,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="40"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
       <c r="E25" s="20" t="s">
@@ -1803,8 +1869,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="40" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="39" t="s">
         <v>60</v>
       </c>
       <c r="C26" s="38" t="s">
@@ -1821,8 +1887,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="40"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="38"/>
       <c r="D27" s="38"/>
       <c r="E27" s="20" t="s">
@@ -1833,8 +1899,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="43"/>
-      <c r="B28" s="40"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="38"/>
       <c r="D28" s="38"/>
       <c r="E28" s="20" t="s">
@@ -1845,8 +1911,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="43"/>
-      <c r="B29" s="40"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
       <c r="E29" s="20" t="s">
@@ -1857,8 +1923,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="40"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="38"/>
       <c r="D30" s="38"/>
       <c r="E30" s="20" t="s">
@@ -1869,8 +1935,8 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="40"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="38"/>
       <c r="D31" s="38"/>
       <c r="E31" s="20" t="s">
@@ -1881,8 +1947,8 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
-      <c r="B32" s="40"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
       <c r="E32" s="20" t="s">
@@ -1893,7 +1959,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="22" t="s">
         <v>63</v>
       </c>
@@ -1911,14 +1977,14 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="48" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1929,10 +1995,10 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="43"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
       <c r="E35" s="2" t="s">
         <v>118</v>
       </c>
@@ -1941,10 +2007,10 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="43"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="2" t="s">
         <v>119</v>
       </c>
@@ -1953,10 +2019,10 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="2" t="s">
         <v>120</v>
       </c>
@@ -1965,10 +2031,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="43"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="2" t="s">
         <v>121</v>
       </c>
@@ -1977,10 +2043,10 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="2" t="s">
         <v>122</v>
       </c>
@@ -1989,10 +2055,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="2" t="s">
         <v>123</v>
       </c>
@@ -2001,8 +2067,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="43"/>
-      <c r="B41" s="40" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="39" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="38" t="s">
@@ -2019,8 +2085,8 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="40"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="20" t="s">
@@ -2031,10 +2097,10 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
       <c r="E43" s="23" t="s">
         <v>126</v>
       </c>
@@ -2043,16 +2109,16 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="61" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="61" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="14" t="s">
@@ -2063,10 +2129,10 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="30"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
+      <c r="A45" s="50"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="62"/>
       <c r="E45" s="16" t="s">
         <v>128</v>
       </c>
@@ -2075,10 +2141,10 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="62"/>
       <c r="E46" s="16" t="s">
         <v>129</v>
       </c>
@@ -2087,10 +2153,10 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="30"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
       <c r="E47" s="16" t="s">
         <v>130</v>
       </c>
@@ -2099,10 +2165,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="62"/>
       <c r="E48" s="16" t="s">
         <v>131</v>
       </c>
@@ -2111,10 +2177,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="30"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="62"/>
       <c r="E49" s="16" t="s">
         <v>132</v>
       </c>
@@ -2123,10 +2189,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="30"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="16" t="s">
         <v>133</v>
       </c>
@@ -2135,10 +2201,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="16" t="s">
         <v>134</v>
       </c>
@@ -2147,85 +2213,112 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="30"/>
-      <c r="B52" s="27" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="50"/>
+      <c r="B53" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C53" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D53" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E53" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F53" s="17" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="30"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="16" t="s">
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F53" s="17" t="s">
+      <c r="F54" s="17" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="30"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="16" t="s">
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F54" s="17" t="s">
+      <c r="F55" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="18" t="s">
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="51"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F56" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="34"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="37"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="54"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="55"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="A57:F58"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A18:A43"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="D34:D40"/>
+    <mergeCell ref="C34:C40"/>
+    <mergeCell ref="B34:B40"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B22:B25"/>
@@ -2235,27 +2328,12 @@
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A18:A43"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="B44:B51"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="D34:D40"/>
-    <mergeCell ref="C34:C40"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="A56:F57"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
+++ b/01Development Library/02ProcessManage/01OPD/YDOSP-OPD-001_组织级文档编写规范.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\项目\YDOSP\HD-CMMI3_libs\01Development Library\02ProcessManage\01OPD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DFD5FE-EDA5-4D61-BB53-31F028772995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BF42CB-0AB9-4FFC-BB2A-3B695BF02AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="384" windowWidth="22080" windowHeight="12240" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
+    <workbookView xWindow="960" yWindow="720" windowWidth="22080" windowHeight="12240" xr2:uid="{E4FB5B23-67BD-437A-A141-6DDF1A38447C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,10 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>阶段状态报告</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>案例</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -585,44 +581,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>YDOSP-PPQA-301-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-101-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-301-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-501-1/2/3/4/5-0615-0621</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-PMC-201-1/2/3/4/5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>基线发布表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YDOSP-CM-601</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>标注：1. 一份的文档00*作为序号，多份周或者检查单类重复性文档第一个数字为固定数字，后两位可变，如1**。
-           2. 关于类似周报、日志这种日期性文件加日期。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PPQA-301-0615-0621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-101-0615-0621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-301-0615-0621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-401</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-501-1/2/3/4/5-0615-0621</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-601</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-PMC-201-1/2/3/4/5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基线发布表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>YDOSP-CM-601</t>
+           2. 关于类似周报、日志这种日期性文件加日期。
+           3.项目名称：云迪在线网络学习平台；项目编号：HD-YDZX-20001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段总结报告</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1071,6 +1072,96 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,24 +1171,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,84 +1184,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1501,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07548433-8EDB-4B65-8588-C50BD0A94E21}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1515,14 +1516,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="28"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
@@ -1545,7 +1546,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1555,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>10</v>
@@ -1565,7 +1566,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
@@ -1583,17 +1584,17 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="31" t="s">
-        <v>30</v>
+      <c r="D5" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>21</v>
@@ -1603,10 +1604,10 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="16" t="s">
         <v>22</v>
       </c>
@@ -1615,697 +1616,701 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="36"/>
-      <c r="B7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="26" t="s">
         <v>30</v>
       </c>
+      <c r="D7" s="26" t="s">
+        <v>29</v>
+      </c>
       <c r="E7" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="36"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="62"/>
+      <c r="B14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="62"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="62"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="63"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="50"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="50"/>
+      <c r="B26" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="51"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="F52" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F13" s="17" t="s">
+    </row>
+    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="37"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A44" s="49" t="s">
-        <v>95</v>
-      </c>
-      <c r="B44" s="58" t="s">
+      <c r="E53" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A46" s="50"/>
-      <c r="B46" s="59"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="62"/>
-      <c r="E46" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="59"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
-      <c r="E47" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="62"/>
-      <c r="E50" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
-      <c r="E51" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" s="17" t="s">
+    </row>
+    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="32"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="33" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="34"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="54"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="55"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="57"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+    </row>
+    <row r="58" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D53:D56"/>
-    <mergeCell ref="C53:C56"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="A44:A56"/>
-    <mergeCell ref="A57:F58"/>
-    <mergeCell ref="B44:B52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D7:D13"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="C41:C43"/>
     <mergeCell ref="B41:B43"/>
@@ -2322,18 +2327,14 @@
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="D7:D13"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="A44:A56"/>
+    <mergeCell ref="A57:F58"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="C44:C52"/>
+    <mergeCell ref="D44:D52"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
